--- a/Assignment5_cds.xlsx
+++ b/Assignment5_cds.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.Zbookrs-HP\Dropbox\Rachelle\edu\coursera - Financial Engineering and Risk Management I\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5B5F25-90B4-4A5E-8E8A-F8CDCF4EB5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="19155" windowHeight="12015"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="5" r:id="rId1"/>
@@ -87,8 +93,16 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="u">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -204,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -227,6 +241,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -289,6 +304,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -360,7 +378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,9 +411,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,6 +463,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -603,11 +655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,6 +823,9 @@
       <c r="AJ5" s="4"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1.7646484051644151E-2</v>
+      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -784,16 +839,19 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>2.4964829920183829E-2</v>
+      </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ref="C7:C16" si="0">C6*(1-A6)</f>
-        <v>1</v>
+        <v>0.98235351594835585</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:D16" si="1">C6*A6</f>
-        <v>0</v>
+        <v>1.7646484051644151E-2</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ref="E7:E16" si="2">1/(1+rf/2)^(B7/6)</f>
@@ -807,7 +865,7 @@
       </c>
       <c r="J7" s="1">
         <f>$E7*(H7*$C7+I7*$D7)</f>
-        <v>4.8780487804878057</v>
+        <v>4.964129190495826</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -817,7 +875,7 @@
       </c>
       <c r="P7" s="1">
         <f>$E7*(N7*$C7+O7*$D7)</f>
-        <v>1.9512195121951221</v>
+        <v>2.3471893982320151</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -827,7 +885,7 @@
       </c>
       <c r="V7" s="1">
         <f t="shared" ref="V7:V12" si="3">$E7*(T7*$C7+U7*$D7)</f>
-        <v>4.8780487804878057</v>
+        <v>5.652772470559988</v>
       </c>
       <c r="Z7">
         <v>5</v>
@@ -837,7 +895,7 @@
       </c>
       <c r="AB7" s="1">
         <f t="shared" ref="AB7:AB14" si="4">$E7*(Z7*$C7+AA7*$D7)</f>
-        <v>4.8780487804878057</v>
+        <v>4.964129190495826</v>
       </c>
       <c r="AF7">
         <v>10</v>
@@ -847,20 +905,23 @@
       </c>
       <c r="AH7" s="1">
         <f t="shared" ref="AH7:AH16" si="5">$E7*(AF7*$C7+AG7*$D7)</f>
-        <v>9.7560975609756113</v>
+        <v>9.928258380991652</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2.4991526205603725E-2</v>
+      </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.95782922750121058</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4524288447145298E-2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
@@ -874,7 +935,7 @@
       </c>
       <c r="J8" s="1">
         <f>$E8*(H8*$C8+I8*$D8)</f>
-        <v>99.940511600237954</v>
+        <v>95.959368730135452</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -884,7 +945,7 @@
       </c>
       <c r="P8" s="1">
         <f>$E8*(N8*$C8+O8*$D8)</f>
-        <v>1.9036287923854849</v>
+        <v>2.4069155656690575</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -894,7 +955,7 @@
       </c>
       <c r="V8" s="1">
         <f t="shared" si="3"/>
-        <v>4.7590719809637125</v>
+        <v>5.725506779167941</v>
       </c>
       <c r="Z8">
         <v>5</v>
@@ -904,7 +965,7 @@
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="4"/>
-        <v>4.7590719809637125</v>
+        <v>4.791803947152891</v>
       </c>
       <c r="AF8">
         <v>10</v>
@@ -914,20 +975,23 @@
       </c>
       <c r="AH8" s="1">
         <f t="shared" si="5"/>
-        <v>9.5181439619274251</v>
+        <v>9.5836078943057821</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>2.7430204555949866E-2</v>
+      </c>
       <c r="B9">
         <v>18</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.93389161326162085</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3937614239589677E-2</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
@@ -941,7 +1005,7 @@
       </c>
       <c r="P9" s="1">
         <f>$E9*(N9*$C9+O9*$D9)</f>
-        <v>1.8571988218394977</v>
+        <v>2.2901337659179495</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -951,7 +1015,7 @@
       </c>
       <c r="V9" s="1">
         <f t="shared" si="3"/>
-        <v>4.6429970545987445</v>
+        <v>5.4474787337735338</v>
       </c>
       <c r="Z9">
         <v>5</v>
@@ -961,7 +1025,7 @@
       </c>
       <c r="AB9" s="1">
         <f t="shared" si="4"/>
-        <v>4.6429970545987445</v>
+        <v>4.5583405545052473</v>
       </c>
       <c r="AF9">
         <v>10</v>
@@ -971,20 +1035,23 @@
       </c>
       <c r="AH9" s="1">
         <f t="shared" si="5"/>
-        <v>9.2859941091974889</v>
+        <v>9.1166811090104947</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>2.783583605029908E-2</v>
+      </c>
       <c r="B10">
         <v>24</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.90827477527676848</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5616837984852283E-2</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
@@ -998,7 +1065,7 @@
       </c>
       <c r="P10" s="1">
         <f>$E10*(N10*$C10+O10*$D10)</f>
-        <v>92.406965769575024</v>
+        <v>84.511105840621468</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -1008,7 +1075,7 @@
       </c>
       <c r="V10" s="1">
         <f t="shared" si="3"/>
-        <v>4.5297532239987754</v>
+        <v>5.2746401360920938</v>
       </c>
       <c r="Z10">
         <v>5</v>
@@ -1018,7 +1085,7 @@
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="4"/>
-        <v>4.5297532239987754</v>
+        <v>4.3463365004877828</v>
       </c>
       <c r="AF10">
         <v>10</v>
@@ -1028,20 +1095,23 @@
       </c>
       <c r="AH10" s="1">
         <f t="shared" si="5"/>
-        <v>9.0595064479975509</v>
+        <v>8.6926730009755655</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>3.4947696275551381E-2</v>
+      </c>
       <c r="B11">
         <v>30</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.88299218754354214</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5282587733226367E-2</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
@@ -1055,7 +1125,7 @@
       </c>
       <c r="V11" s="1">
         <f t="shared" si="3"/>
-        <v>4.4192714380475859</v>
+        <v>5.0194883329241282</v>
       </c>
       <c r="Z11">
         <v>5</v>
@@ -1065,7 +1135,7 @@
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="4"/>
-        <v>4.4192714380475859</v>
+        <v>4.125643390129091</v>
       </c>
       <c r="AF11">
         <v>10</v>
@@ -1075,20 +1145,23 @@
       </c>
       <c r="AH11" s="1">
         <f t="shared" si="5"/>
-        <v>8.8385428760951719</v>
+        <v>8.251286780258182</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>3.4947696275551408E-2</v>
+      </c>
       <c r="B12">
         <v>36</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.85213364475958575</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.0858542783956413E-2</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
@@ -1102,7 +1175,7 @@
       </c>
       <c r="V12" s="1">
         <f t="shared" si="3"/>
-        <v>90.541170925852981</v>
+        <v>78.483639218383416</v>
       </c>
       <c r="Z12">
         <v>5</v>
@@ -1112,7 +1185,7 @@
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="4"/>
-        <v>4.3114843298025232</v>
+        <v>3.9400531035856008</v>
       </c>
       <c r="AF12">
         <v>10</v>
@@ -1122,20 +1195,23 @@
       </c>
       <c r="AH12" s="1">
         <f t="shared" si="5"/>
-        <v>8.6229686596050463</v>
+        <v>7.8801062071712016</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>3.7458527577703252E-2</v>
+      </c>
       <c r="B13">
         <v>42</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.82235353695634916</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9780107803236623E-2</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
@@ -1150,7 +1226,7 @@
       </c>
       <c r="AB13" s="1">
         <f t="shared" si="4"/>
-        <v>4.2063261754170957</v>
+        <v>3.7096169018653153</v>
       </c>
       <c r="AF13">
         <v>10</v>
@@ -1160,20 +1236,23 @@
       </c>
       <c r="AH13" s="1">
         <f t="shared" si="5"/>
-        <v>8.4126523508341915</v>
+        <v>7.4192338037306307</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>4.0612135757840791E-2</v>
+      </c>
       <c r="B14">
         <v>48</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.79154938431364796</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.0804152642701216E-2</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
@@ -1188,7 +1267,7 @@
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="4"/>
-        <v>86.178389935374653</v>
+        <v>68.46727552097029</v>
       </c>
       <c r="AF14">
         <v>10</v>
@@ -1198,20 +1277,23 @@
       </c>
       <c r="AH14" s="1">
         <f t="shared" si="5"/>
-        <v>8.2074657081309184</v>
+        <v>7.0022624810124094</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>4.2105608027395103E-2</v>
+      </c>
       <c r="B15">
         <v>54</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.7594028732588668</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.2146511054781161E-2</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
@@ -1227,20 +1309,23 @@
       </c>
       <c r="AH15" s="1">
         <f t="shared" si="5"/>
-        <v>8.007283617688703</v>
+        <v>6.59556664894105</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>4.2115562055929645E-2</v>
+      </c>
       <c r="B16">
         <v>60</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.72742775354255129</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.1975119716315448E-2</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="2"/>
@@ -1256,7 +1341,7 @@
       </c>
       <c r="AH16" s="1">
         <f t="shared" si="5"/>
-        <v>85.931824189829982</v>
+        <v>63.008772076568981</v>
       </c>
     </row>
     <row r="17" spans="9:34" x14ac:dyDescent="0.25">
@@ -1269,35 +1354,35 @@
       </c>
       <c r="J18" s="1">
         <f>SUM(J7:J16)</f>
-        <v>104.81856038072576</v>
+        <v>100.92349792063128</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="P18" s="1">
         <f>SUM(P7:P16)</f>
-        <v>98.119012895995127</v>
+        <v>91.555344570440496</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="V18" s="1">
         <f>SUM(V7:V16)</f>
-        <v>113.77031340394961</v>
+        <v>105.60352567090109</v>
       </c>
       <c r="AA18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AB18" s="1">
         <f>SUM(AB7:AB16)</f>
-        <v>117.9253429186909</v>
+        <v>98.903199109192045</v>
       </c>
       <c r="AG18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AH18" s="1">
         <f>SUM(AH7:AH16)</f>
-        <v>165.6404794822821</v>
+        <v>137.47844838296595</v>
       </c>
     </row>
     <row r="19" spans="9:34" x14ac:dyDescent="0.25">
@@ -1338,35 +1423,35 @@
       </c>
       <c r="J20" s="1">
         <f>(J18-J19)^2</f>
-        <v>15.171511589267359</v>
+        <v>7.4270324817650327E-18</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P20" s="1">
         <f>(P18-P19)^2</f>
-        <v>43.081741909781215</v>
+        <v>2.7811306418261185E-18</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="V20" s="1">
         <f>(V18-V19)^2</f>
-        <v>66.696421862374066</v>
+        <v>7.6625553007202297E-19</v>
       </c>
       <c r="AA20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AB20" s="1">
         <f>(AB18-AB19)^2</f>
-        <v>361.84195509341868</v>
+        <v>1.7328784548711658E-19</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AH20" s="1">
         <f>(AH18-AH19)^2</f>
-        <v>793.09999553409045</v>
+        <v>3.4593957260419111E-18</v>
       </c>
     </row>
     <row r="21" spans="9:34" x14ac:dyDescent="0.25">
@@ -1375,7 +1460,7 @@
       </c>
       <c r="J21" s="6">
         <f>J20+P20+V20+AB20+AH20</f>
-        <v>1279.8916259889318</v>
+        <v>1.4607102225192202E-17</v>
       </c>
     </row>
     <row r="23" spans="9:34" x14ac:dyDescent="0.25">
@@ -1417,7 +1502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1434,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
